--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.0099176127211</v>
+        <v>450.6163317788485</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.3213018072908</v>
+        <v>616.5531449293343</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.5299354593862</v>
+        <v>557.7101781150517</v>
       </c>
       <c r="AD2" t="n">
-        <v>343009.9176127211</v>
+        <v>450616.3317788485</v>
       </c>
       <c r="AE2" t="n">
-        <v>469321.3018072908</v>
+        <v>616553.1449293343</v>
       </c>
       <c r="AF2" t="n">
         <v>7.04068622226716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>424529.9354593862</v>
+        <v>557710.1781150517</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.4175081682733</v>
+        <v>325.4800341826306</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.8451087969137</v>
+        <v>445.3361419343652</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.8423475364065</v>
+        <v>402.8338855813494</v>
       </c>
       <c r="AD3" t="n">
-        <v>237417.5081682733</v>
+        <v>325480.0341826305</v>
       </c>
       <c r="AE3" t="n">
-        <v>324845.1087969138</v>
+        <v>445336.1419343652</v>
       </c>
       <c r="AF3" t="n">
         <v>9.357386596327486e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>293842.3475364065</v>
+        <v>402833.8855813494</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>213.6053976993975</v>
+        <v>291.8120826357016</v>
       </c>
       <c r="AB4" t="n">
-        <v>292.264328737242</v>
+        <v>399.2701653026639</v>
       </c>
       <c r="AC4" t="n">
-        <v>264.3710313982075</v>
+        <v>361.1643811053734</v>
       </c>
       <c r="AD4" t="n">
-        <v>213605.3976993975</v>
+        <v>291812.0826357016</v>
       </c>
       <c r="AE4" t="n">
-        <v>292264.328737242</v>
+        <v>399270.1653026639</v>
       </c>
       <c r="AF4" t="n">
         <v>1.030703847642257e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.23148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>264371.0313982075</v>
+        <v>361164.3811053734</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>199.3989287281294</v>
+        <v>277.6729334721378</v>
       </c>
       <c r="AB5" t="n">
-        <v>272.8264111455852</v>
+        <v>379.9243576418385</v>
       </c>
       <c r="AC5" t="n">
-        <v>246.7882413802035</v>
+        <v>343.6649101756856</v>
       </c>
       <c r="AD5" t="n">
-        <v>199398.9287281294</v>
+        <v>277672.9334721378</v>
       </c>
       <c r="AE5" t="n">
-        <v>272826.4111455852</v>
+        <v>379924.3576418385</v>
       </c>
       <c r="AF5" t="n">
         <v>1.059994838089286e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.80324074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>246788.2413802035</v>
+        <v>343664.9101756857</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.0774909603041</v>
+        <v>375.7814972349001</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.846135161851</v>
+        <v>514.1608228264109</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.4032759464198</v>
+        <v>465.0900355251047</v>
       </c>
       <c r="AD2" t="n">
-        <v>279077.4909603042</v>
+        <v>375781.4972349001</v>
       </c>
       <c r="AE2" t="n">
-        <v>381846.135161851</v>
+        <v>514160.8228264109</v>
       </c>
       <c r="AF2" t="n">
         <v>8.817535235136411e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.47916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>345403.2759464198</v>
+        <v>465090.0355251047</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.1504262238188</v>
+        <v>284.493334198201</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.4323519911165</v>
+        <v>389.2563308100822</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.3819661169721</v>
+        <v>352.1062529222588</v>
       </c>
       <c r="AD3" t="n">
-        <v>207150.4262238188</v>
+        <v>284493.334198201</v>
       </c>
       <c r="AE3" t="n">
-        <v>283432.3519911165</v>
+        <v>389256.3308100822</v>
       </c>
       <c r="AF3" t="n">
         <v>1.127824274261634e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.23148148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>256381.9661169721</v>
+        <v>352106.2529222587</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>193.6627845409411</v>
+        <v>271.0730123230276</v>
       </c>
       <c r="AB4" t="n">
-        <v>264.9779656078568</v>
+        <v>370.8940543576545</v>
       </c>
       <c r="AC4" t="n">
-        <v>239.688840469231</v>
+        <v>335.4964463628339</v>
       </c>
       <c r="AD4" t="n">
-        <v>193662.7845409411</v>
+        <v>271073.0123230276</v>
       </c>
       <c r="AE4" t="n">
-        <v>264977.9656078569</v>
+        <v>370894.0543576545</v>
       </c>
       <c r="AF4" t="n">
         <v>1.158019280157206e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.82638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>239688.840469231</v>
+        <v>335496.4463628338</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.2157504685512</v>
+        <v>264.0596043863657</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.8933374007191</v>
+        <v>361.2980002089926</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.1849206383511</v>
+        <v>326.8162261539737</v>
       </c>
       <c r="AD2" t="n">
-        <v>189215.7504685512</v>
+        <v>264059.6043863657</v>
       </c>
       <c r="AE2" t="n">
-        <v>258893.3374007191</v>
+        <v>361298.0002089926</v>
       </c>
       <c r="AF2" t="n">
         <v>1.529608664324059e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.6712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>234184.9206383511</v>
+        <v>326816.2261539737</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.298005329252</v>
+        <v>273.1585663570855</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.9518350650438</v>
+        <v>373.7476013952029</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.1880108062952</v>
+        <v>338.0776548760971</v>
       </c>
       <c r="AD2" t="n">
-        <v>197298.005329252</v>
+        <v>273158.5663570855</v>
       </c>
       <c r="AE2" t="n">
-        <v>269951.8350650438</v>
+        <v>373747.6013952029</v>
       </c>
       <c r="AF2" t="n">
         <v>1.330702018514084e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.60185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>244188.0108062951</v>
+        <v>338077.6548760971</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.7749194583361</v>
+        <v>260.1197559687671</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.1313935488801</v>
+        <v>355.9073257901892</v>
       </c>
       <c r="AC3" t="n">
-        <v>239.8276254629004</v>
+        <v>321.9400301358418</v>
       </c>
       <c r="AD3" t="n">
-        <v>193774.9194583361</v>
+        <v>260119.7559687671</v>
       </c>
       <c r="AE3" t="n">
-        <v>265131.3935488801</v>
+        <v>355907.3257901893</v>
       </c>
       <c r="AF3" t="n">
         <v>1.376831347870755e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.08101851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>239827.6254629004</v>
+        <v>321940.0301358418</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.6890269645169</v>
+        <v>278.9160502663331</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.7503598832986</v>
+        <v>381.6252448820988</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.1966413261052</v>
+        <v>345.2034671249457</v>
       </c>
       <c r="AD2" t="n">
-        <v>195689.0269645169</v>
+        <v>278916.050266333</v>
       </c>
       <c r="AE2" t="n">
-        <v>267750.3598832986</v>
+        <v>381625.2448820988</v>
       </c>
       <c r="AF2" t="n">
         <v>1.662198010104357e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.51620370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>242196.6413261052</v>
+        <v>345203.4671249457</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>296.0845364665307</v>
+        <v>393.1065036470939</v>
       </c>
       <c r="AB2" t="n">
-        <v>405.1159251213643</v>
+        <v>537.865660924914</v>
       </c>
       <c r="AC2" t="n">
-        <v>366.4522298115525</v>
+        <v>486.5325171454357</v>
       </c>
       <c r="AD2" t="n">
-        <v>296084.5364665306</v>
+        <v>393106.5036470939</v>
       </c>
       <c r="AE2" t="n">
-        <v>405115.9251213643</v>
+        <v>537865.6609249139</v>
       </c>
       <c r="AF2" t="n">
         <v>8.351426172244498e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.06944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>366452.2298115524</v>
+        <v>486532.5171454357</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.9189066648223</v>
+        <v>289.5903362554391</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.9567973010042</v>
+        <v>396.2302738886559</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.2837275236026</v>
+        <v>358.414612661404</v>
       </c>
       <c r="AD3" t="n">
-        <v>211918.9066648223</v>
+        <v>289590.3362554391</v>
       </c>
       <c r="AE3" t="n">
-        <v>289956.7973010042</v>
+        <v>396230.2738886559</v>
       </c>
       <c r="AF3" t="n">
         <v>1.075442677480647e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.5787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>262283.7275236027</v>
+        <v>358414.612661404</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.0199081421029</v>
+        <v>272.6571723139386</v>
       </c>
       <c r="AB4" t="n">
-        <v>266.8348419910332</v>
+        <v>373.0615719454252</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.3684991765398</v>
+        <v>337.4570991141578</v>
       </c>
       <c r="AD4" t="n">
-        <v>195019.9081421029</v>
+        <v>272657.1723139386</v>
       </c>
       <c r="AE4" t="n">
-        <v>266834.8419910332</v>
+        <v>373061.5719454252</v>
       </c>
       <c r="AF4" t="n">
         <v>1.132404622349765e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.80324074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>241368.4991765398</v>
+        <v>337457.0991141578</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.9874096277006</v>
+        <v>286.5915896693744</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.104573141866</v>
+        <v>392.1272565142398</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.4672244070169</v>
+        <v>354.7031815065811</v>
       </c>
       <c r="AD2" t="n">
-        <v>203987.4096277006</v>
+        <v>286591.5896693744</v>
       </c>
       <c r="AE2" t="n">
-        <v>279104.573141866</v>
+        <v>392127.2565142398</v>
       </c>
       <c r="AF2" t="n">
         <v>1.732164470152011e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.33796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>252467.2244070169</v>
+        <v>354703.1815065811</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.8811813355313</v>
+        <v>324.1771753878717</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.4795268801723</v>
+        <v>443.5535130533028</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.4162176482104</v>
+        <v>401.2213882987602</v>
       </c>
       <c r="AD2" t="n">
-        <v>237881.1813355313</v>
+        <v>324177.1753878717</v>
       </c>
       <c r="AE2" t="n">
-        <v>325479.5268801723</v>
+        <v>443553.5130533028</v>
       </c>
       <c r="AF2" t="n">
         <v>1.060801743927412e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>294416.2176482104</v>
+        <v>401221.3882987602</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.6136726643459</v>
+        <v>265.2870575143118</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.0695479872077</v>
+        <v>362.9774557300586</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.4397525302693</v>
+        <v>328.3353967972398</v>
       </c>
       <c r="AD3" t="n">
-        <v>188613.6726643459</v>
+        <v>265287.0575143118</v>
       </c>
       <c r="AE3" t="n">
-        <v>258069.5479872077</v>
+        <v>362977.4557300586</v>
       </c>
       <c r="AF3" t="n">
         <v>1.257912192840113e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.84953703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>233439.7525302693</v>
+        <v>328335.3967972398</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.5793468042341</v>
+        <v>359.0560857197528</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.2726464807645</v>
+        <v>491.2763769183068</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.9841693429658</v>
+        <v>444.3896490159483</v>
       </c>
       <c r="AD2" t="n">
-        <v>262579.3468042341</v>
+        <v>359056.0857197528</v>
       </c>
       <c r="AE2" t="n">
-        <v>359272.6464807645</v>
+        <v>491276.3769183067</v>
       </c>
       <c r="AF2" t="n">
         <v>9.311274569851963e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.93518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>324984.1693429658</v>
+        <v>444389.6490159483</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.1640578249502</v>
+        <v>270.3386158736113</v>
       </c>
       <c r="AB3" t="n">
-        <v>264.2955857127686</v>
+        <v>369.8892207362784</v>
       </c>
       <c r="AC3" t="n">
-        <v>239.0715859536034</v>
+        <v>334.5875126519891</v>
       </c>
       <c r="AD3" t="n">
-        <v>193164.0578249502</v>
+        <v>270338.6158736114</v>
       </c>
       <c r="AE3" t="n">
-        <v>264295.5857127686</v>
+        <v>369889.2207362784</v>
       </c>
       <c r="AF3" t="n">
         <v>1.178875800490131e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.9537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>239071.5859536034</v>
+        <v>334587.5126519891</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.7792117592187</v>
+        <v>268.9537698078798</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.4007782305391</v>
+        <v>367.994413254048</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.3576162380983</v>
+        <v>332.8735429364837</v>
       </c>
       <c r="AD4" t="n">
-        <v>191779.2117592187</v>
+        <v>268953.7698078798</v>
       </c>
       <c r="AE4" t="n">
-        <v>262400.7782305391</v>
+        <v>367994.413254048</v>
       </c>
       <c r="AF4" t="n">
         <v>1.192338397961139e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.78009259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>237357.6162380983</v>
+        <v>332873.5429364837</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.444516164165</v>
+        <v>430.8357009086481</v>
       </c>
       <c r="AB2" t="n">
-        <v>442.5510563807834</v>
+        <v>589.4884131128814</v>
       </c>
       <c r="AC2" t="n">
-        <v>400.3146046841094</v>
+        <v>533.2284663175714</v>
       </c>
       <c r="AD2" t="n">
-        <v>323444.516164165</v>
+        <v>430835.7009086481</v>
       </c>
       <c r="AE2" t="n">
-        <v>442551.0563807834</v>
+        <v>589488.4131128814</v>
       </c>
       <c r="AF2" t="n">
         <v>7.446484455481391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.51620370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>400314.6046841095</v>
+        <v>533228.4663175714</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.2322213443624</v>
+        <v>309.2675813508304</v>
       </c>
       <c r="AB3" t="n">
-        <v>316.3821264888471</v>
+        <v>423.1535487269567</v>
       </c>
       <c r="AC3" t="n">
-        <v>286.1870603819488</v>
+        <v>382.7683679361909</v>
       </c>
       <c r="AD3" t="n">
-        <v>231232.2213443624</v>
+        <v>309267.5813508304</v>
       </c>
       <c r="AE3" t="n">
-        <v>316382.1264888471</v>
+        <v>423153.5487269567</v>
       </c>
       <c r="AF3" t="n">
         <v>9.843319909072327e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.27314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>286187.0603819488</v>
+        <v>382768.3679361909</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.8881043732385</v>
+        <v>275.9566187686296</v>
       </c>
       <c r="AB4" t="n">
-        <v>270.7592346103581</v>
+        <v>377.5760201460379</v>
       </c>
       <c r="AC4" t="n">
-        <v>244.9183532721973</v>
+        <v>341.5406947145718</v>
       </c>
       <c r="AD4" t="n">
-        <v>197888.1043732385</v>
+        <v>275956.6187686296</v>
       </c>
       <c r="AE4" t="n">
-        <v>270759.2346103581</v>
+        <v>377576.0201460379</v>
       </c>
       <c r="AF4" t="n">
         <v>1.084771205461627e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.76851851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>244918.3532721973</v>
+        <v>341540.6947145718</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>198.0886567540388</v>
+        <v>276.15717114943</v>
       </c>
       <c r="AB5" t="n">
-        <v>271.0336392255156</v>
+        <v>377.8504247611955</v>
       </c>
       <c r="AC5" t="n">
-        <v>245.1665690960135</v>
+        <v>341.7889105383881</v>
       </c>
       <c r="AD5" t="n">
-        <v>198088.6567540388</v>
+        <v>276157.17114943</v>
       </c>
       <c r="AE5" t="n">
-        <v>271033.6392255157</v>
+        <v>377850.4247611956</v>
       </c>
       <c r="AF5" t="n">
         <v>1.082916091092186e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>245166.5690960136</v>
+        <v>341788.9105383881</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.2062976246126</v>
+        <v>290.2969137305593</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.0865065247547</v>
+        <v>397.1970443621136</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.1147416916139</v>
+        <v>359.2891159177457</v>
       </c>
       <c r="AD2" t="n">
-        <v>214206.2976246126</v>
+        <v>290296.9137305593</v>
       </c>
       <c r="AE2" t="n">
-        <v>293086.5065247547</v>
+        <v>397197.0443621136</v>
       </c>
       <c r="AF2" t="n">
         <v>1.224492050627635e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.30787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>265114.7416916139</v>
+        <v>359289.1159177457</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>195.5308651101539</v>
+        <v>262.1359046456751</v>
       </c>
       <c r="AB3" t="n">
-        <v>267.5339558565507</v>
+        <v>358.6659093561368</v>
       </c>
       <c r="AC3" t="n">
-        <v>242.0008905959451</v>
+        <v>324.4353383579517</v>
       </c>
       <c r="AD3" t="n">
-        <v>195530.8651101539</v>
+        <v>262135.9046456751</v>
       </c>
       <c r="AE3" t="n">
-        <v>267533.9558565507</v>
+        <v>358665.9093561368</v>
       </c>
       <c r="AF3" t="n">
         <v>1.331272023808838e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>242000.8905959451</v>
+        <v>324435.3383579517</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.0513797952964</v>
+        <v>266.1573615179879</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.404926427821</v>
+        <v>364.1682440629912</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.4568071337445</v>
+        <v>329.4125379629592</v>
       </c>
       <c r="AD2" t="n">
-        <v>191051.3797952964</v>
+        <v>266157.3615179879</v>
       </c>
       <c r="AE2" t="n">
-        <v>261404.926427821</v>
+        <v>364168.2440629912</v>
       </c>
       <c r="AF2" t="n">
         <v>1.46782725851023e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.47453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>236456.8071337445</v>
+        <v>329412.5379629591</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.3861676530406</v>
+        <v>266.4921493757322</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.8629979445843</v>
+        <v>364.6263155797548</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.8711609478555</v>
+        <v>329.8268917770702</v>
       </c>
       <c r="AD3" t="n">
-        <v>191386.1676530406</v>
+        <v>266492.1493757322</v>
       </c>
       <c r="AE3" t="n">
-        <v>261862.9979445843</v>
+        <v>364626.3155797548</v>
       </c>
       <c r="AF3" t="n">
         <v>1.466630169591449e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.48611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>236871.1609478555</v>
+        <v>329826.8917770702</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.1835388007339</v>
+        <v>271.5639583342503</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.7952169108185</v>
+        <v>371.5657883492187</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.0463400688941</v>
+        <v>336.1040710050278</v>
       </c>
       <c r="AD2" t="n">
-        <v>197183.5388007339</v>
+        <v>271563.9583342503</v>
       </c>
       <c r="AE2" t="n">
-        <v>269795.2169108185</v>
+        <v>371565.7883492187</v>
       </c>
       <c r="AF2" t="n">
         <v>1.591968719607772e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.01851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>244046.3400688941</v>
+        <v>336104.0710050278</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.4517227365949</v>
+        <v>303.5947118397062</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.6858197565891</v>
+        <v>415.3916783924968</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.9431730992163</v>
+        <v>375.7472796125983</v>
       </c>
       <c r="AD2" t="n">
-        <v>212451.7227365949</v>
+        <v>303594.7118397062</v>
       </c>
       <c r="AE2" t="n">
-        <v>290685.8197565891</v>
+        <v>415391.6783924968</v>
       </c>
       <c r="AF2" t="n">
         <v>1.798181420050262e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.76157407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>262943.1730992162</v>
+        <v>375747.2796125984</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.7129595123766</v>
+        <v>341.22955643463</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.509508347366</v>
+        <v>466.8853330994347</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.2482500069644</v>
+        <v>422.3264521861045</v>
       </c>
       <c r="AD2" t="n">
-        <v>254712.9595123766</v>
+        <v>341229.55643463</v>
       </c>
       <c r="AE2" t="n">
-        <v>348509.5083473659</v>
+        <v>466885.3330994347</v>
       </c>
       <c r="AF2" t="n">
         <v>9.938269551089943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.24074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>315248.2500069644</v>
+        <v>422326.4521861045</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.0638551271958</v>
+        <v>266.9931712461548</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.0537516104128</v>
+        <v>365.3118358063919</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.2345865445236</v>
+        <v>330.4469869154108</v>
       </c>
       <c r="AD3" t="n">
-        <v>190063.8551271957</v>
+        <v>266993.1712461548</v>
       </c>
       <c r="AE3" t="n">
-        <v>260053.7516104128</v>
+        <v>365311.8358063918</v>
       </c>
       <c r="AF3" t="n">
         <v>1.225219346676984e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>235234.5865445236</v>
+        <v>330446.9869154108</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.3921954474721</v>
+        <v>267.3215115664312</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.5030013219674</v>
+        <v>365.7610855179466</v>
       </c>
       <c r="AC4" t="n">
-        <v>235.6409604941335</v>
+        <v>330.8533608650207</v>
       </c>
       <c r="AD4" t="n">
-        <v>190392.1954474721</v>
+        <v>267321.5115664312</v>
       </c>
       <c r="AE4" t="n">
-        <v>260503.0013219673</v>
+        <v>365761.0855179466</v>
       </c>
       <c r="AF4" t="n">
         <v>1.222526006259464e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.82638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>235640.9604941334</v>
+        <v>330853.3608650207</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.1108765752825</v>
+        <v>412.176327879061</v>
       </c>
       <c r="AB2" t="n">
-        <v>417.4661618721798</v>
+        <v>563.9578357403605</v>
       </c>
       <c r="AC2" t="n">
-        <v>377.6237773005363</v>
+        <v>510.1344914170933</v>
       </c>
       <c r="AD2" t="n">
-        <v>305110.8765752825</v>
+        <v>412176.327879061</v>
       </c>
       <c r="AE2" t="n">
-        <v>417466.1618721798</v>
+        <v>563957.8357403604</v>
       </c>
       <c r="AF2" t="n">
         <v>7.866206383881773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.82175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>377623.7773005363</v>
+        <v>510134.4914170933</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.2124136722938</v>
+        <v>303.7710419713742</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.8313630047846</v>
+        <v>415.6329410577814</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.5976329216209</v>
+        <v>375.9655165077224</v>
       </c>
       <c r="AD3" t="n">
-        <v>216212.4136722938</v>
+        <v>303771.0419713742</v>
       </c>
       <c r="AE3" t="n">
-        <v>295831.3630047846</v>
+        <v>415632.9410577813</v>
       </c>
       <c r="AF3" t="n">
         <v>1.031645453925251e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.87962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>267597.6329216209</v>
+        <v>375965.5165077224</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>196.3334730966918</v>
+        <v>274.1899380215927</v>
       </c>
       <c r="AB4" t="n">
-        <v>268.6321195122966</v>
+        <v>375.1587696074882</v>
       </c>
       <c r="AC4" t="n">
-        <v>242.9942470536693</v>
+        <v>339.3541431747889</v>
       </c>
       <c r="AD4" t="n">
-        <v>196333.4730966918</v>
+        <v>274189.9380215927</v>
       </c>
       <c r="AE4" t="n">
-        <v>268632.1195122966</v>
+        <v>375158.7696074882</v>
       </c>
       <c r="AF4" t="n">
         <v>1.107783268350671e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.78009259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>242994.2470536693</v>
+        <v>339354.1431747889</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>196.5688434185882</v>
+        <v>274.4253083434892</v>
       </c>
       <c r="AB5" t="n">
-        <v>268.954163570521</v>
+        <v>375.4808136657127</v>
       </c>
       <c r="AC5" t="n">
-        <v>243.2855556789685</v>
+        <v>339.6454518000881</v>
       </c>
       <c r="AD5" t="n">
-        <v>196568.8434185882</v>
+        <v>274425.3083434892</v>
       </c>
       <c r="AE5" t="n">
-        <v>268954.1635705209</v>
+        <v>375480.8136657127</v>
       </c>
       <c r="AF5" t="n">
         <v>1.107627625169351e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.78009259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>243285.5556789685</v>
+        <v>339645.4518000881</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.0333372157914</v>
+        <v>349.2923803431988</v>
       </c>
       <c r="AB2" t="n">
-        <v>342.1066426708161</v>
+        <v>477.9172444778249</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.4564648441041</v>
+        <v>432.3054934259258</v>
       </c>
       <c r="AD2" t="n">
-        <v>250033.3372157915</v>
+        <v>349292.3803431988</v>
       </c>
       <c r="AE2" t="n">
-        <v>342106.6426708162</v>
+        <v>477917.2444778249</v>
       </c>
       <c r="AF2" t="n">
         <v>1.80482815922327e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.01388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>309456.4648441041</v>
+        <v>432305.4934259258</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.6095620542011</v>
+        <v>268.0529397118345</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.5369001366031</v>
+        <v>366.7618577748199</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.3853082640051</v>
+        <v>331.7586208222906</v>
       </c>
       <c r="AD2" t="n">
-        <v>192609.5620542011</v>
+        <v>268052.9397118345</v>
       </c>
       <c r="AE2" t="n">
-        <v>263536.9001366031</v>
+        <v>366761.8577748199</v>
       </c>
       <c r="AF2" t="n">
         <v>1.417743020259503e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>238385.3082640051</v>
+        <v>331758.6208222906</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.2887758289061</v>
+        <v>267.7321534865395</v>
       </c>
       <c r="AB3" t="n">
-        <v>263.0979862710652</v>
+        <v>366.3229439092818</v>
       </c>
       <c r="AC3" t="n">
-        <v>237.9882837217745</v>
+        <v>331.3615962800599</v>
       </c>
       <c r="AD3" t="n">
-        <v>192288.7758289061</v>
+        <v>267732.1534865394</v>
       </c>
       <c r="AE3" t="n">
-        <v>263097.9862710652</v>
+        <v>366322.9439092817</v>
       </c>
       <c r="AF3" t="n">
         <v>1.424255442163835e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.20833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>237988.2837217745</v>
+        <v>331361.59628006</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.2966800428762</v>
+        <v>307.2570461661979</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.7878805550137</v>
+        <v>420.4026457887901</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.8902302003921</v>
+        <v>380.2800073135263</v>
       </c>
       <c r="AD2" t="n">
-        <v>221296.6800428762</v>
+        <v>307257.0461661979</v>
       </c>
       <c r="AE2" t="n">
-        <v>302787.8805550137</v>
+        <v>420402.6457887901</v>
       </c>
       <c r="AF2" t="n">
         <v>1.135569545170441e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.97916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>273890.2302003921</v>
+        <v>380280.0073135263</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.2534561220029</v>
+        <v>263.6588742962019</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.2084397054563</v>
+        <v>360.7497036206665</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.7562658108457</v>
+        <v>326.3202582224984</v>
       </c>
       <c r="AD3" t="n">
-        <v>187253.4561220029</v>
+        <v>263658.8742962019</v>
       </c>
       <c r="AE3" t="n">
-        <v>256208.4397054563</v>
+        <v>360749.7036206665</v>
       </c>
       <c r="AF3" t="n">
         <v>1.292023423691949e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.93055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>231756.2658108457</v>
+        <v>326320.2582224983</v>
       </c>
     </row>
   </sheetData>
